--- a/data/hotels_by_city/Dallas/Dallas_shard_216.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_216.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>damelis1305</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>We as clients feel very offended by the disrespectful treatment of this lady, the other people at the reception always very friendly and smiling with us. This lady sends us a letter saying that we are bothering the clients with the loud music in the rooms, but we do not have radios or horns we just have our cell phones my question is if I can not listen to music from my phone in my room which I am paying? Second, it seems very out of place threats because it is not GEC who is paying !!! We are paying with our money and it also makes me very out of place to be told that it is the last warning when we have never been told anything about noise or music ... because they do not apologize for the malfunction of the keys that we have to go a thousand times to the reception because they do not work and they always have the excuse that the cell phone or the credit card and I have my key alone nothing close, because they do not apologize because they want to treat us as if we were not clients, I think all this is defined as the following discrimination because we are Latinos.More</t>
   </si>
   <si>
+    <t>rickdcarbone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r496945965-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>This is hands down the best place to stay for the friendly price. Full kitchen, great location and the staff is friendly and caring. I will make this my #1 hotel destination. It's like getting and efficiency apartment. They even have sofa beds just in case you have a need for the secondary sleeping area.More</t>
   </si>
   <si>
+    <t>michaelfox171</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r581817539-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>This is an amazing place to stay! Clean, well appointed rooms and super friendly staff. I travel a lot and for months at a time. So it is so nice to find a place that feels like my home away from home. And I found it!The staff there including Teai, Colleen and Antwanette were helpful and cheeeful. The manager Christiana is a consummate professional. Michael FoxMooresville , IndianaMore</t>
   </si>
   <si>
+    <t>anthony n</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r519681011-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>Never had better service and passionate employees that work to keep you happy and comfortable Tina and Teai are excellent. They make u feel like you're at home each day. They have a great size and very nice laundry facilities and the WiFi is very good for all task that need to done do school ,business or whatever the situation is . Thank you for the great memories and amazing customer service that is 2nd to non.More</t>
   </si>
   <si>
+    <t>ACBest</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r505341194-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t>First and last time at any Extended Stay hotel. The day I checked it was over 100 degrees outside. Upon check in I wasn't advised of internet code, dishes available for guest use, and I had to ask about breakfast hours. I used the luggage cart to bring in luggage and no one offered assistance. Finally, made it upstairs and my room cards didn't work. Someone was going to bring door cards up to the room however, I was sweating in the hallway with no air conditioner waiting so I made my back downstairs with luggage cart and met the person with door card. He did offer to assist with luggage cart....at this point I declined. Entered the room to 71 degrees on fan/AC and a musty odor. I adjusted the temps hoping this would eliminate the odor. I pulled my covers back to sit in bed and found many hairs in my bed. I called for new sheets and changed bed linens was never offered for anyone to come look at dirty sheets or change to fresh sheets.  Floors and walls are paper thin being that I could hear people walking and talking all night until about 1:30am. Bathroom tub faucet leaked constantly, room temps never cooled the whole room, silverware didn't looked clean. I went to store and purchased paper plates, dish detergent, plastic ware, glasses, candles, and air freshener. The only positive were a few premium TV...First and last time at any Extended Stay hotel. The day I checked it was over 100 degrees outside. Upon check in I wasn't advised of internet code, dishes available for guest use, and I had to ask about breakfast hours. I used the luggage cart to bring in luggage and no one offered assistance. Finally, made it upstairs and my room cards didn't work. Someone was going to bring door cards up to the room however, I was sweating in the hallway with no air conditioner waiting so I made my back downstairs with luggage cart and met the person with door card. He did offer to assist with luggage cart....at this point I declined. Entered the room to 71 degrees on fan/AC and a musty odor. I adjusted the temps hoping this would eliminate the odor. I pulled my covers back to sit in bed and found many hairs in my bed. I called for new sheets and changed bed linens was never offered for anyone to come look at dirty sheets or change to fresh sheets.  Floors and walls are paper thin being that I could hear people walking and talking all night until about 1:30am. Bathroom tub faucet leaked constantly, room temps never cooled the whole room, silverware didn't looked clean. I went to store and purchased paper plates, dish detergent, plastic ware, glasses, candles, and air freshener. The only positive were a few premium TV channels, refrigerator, and short stay.More</t>
   </si>
   <si>
+    <t>ladyinblack31</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r501912101-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -327,6 +345,9 @@
     <t>The hotel and staff were excellent. Quinlan and Bevin were amazing. Our overall our experience was tremendous. Everything was clean and readily available. The room had accommodations for us and the staff complimented all of the wonderful experiences that we had on our trip.More</t>
   </si>
   <si>
+    <t>Z429KXhelenb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r497828413-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>The staff was courteous, professional. If you will need maid service, let it be known and the motel will accommodate you. The premises were maintained and orderly. I would recommend it. Quiet environment.More</t>
   </si>
   <si>
+    <t>Skysoldier4life</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r480481894-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -378,6 +402,9 @@
     <t>On the road for work each week, alot of the hotels tend to blend together. This one is an averageish property, the service was above average at check in. Room was large and spacious- larger than many extended stays I've been in before. 0 Complaints about room, service, or price- and location was better than expected to nearby restaurants and bars.More</t>
   </si>
   <si>
+    <t>Jorge B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r467091385-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -405,6 +432,9 @@
     <t>*Location: Excellent location, very close to highway and shops, restaurants within walking distance*Checkin was fast &amp; attendant Ernest, was courteous, he gave me directions to my room, gave pertinent info and advised of breakfast times.*room: I got the queen bed size suite...room was very nice, clean, welcoming... It was spacious, furniture was appropriate (chest drawers, desk &amp; 2 chairs, tv &amp; stand, couch, chair &amp; center table, night stand, kitchen area was immaculate, it included a fridge, stove, microwave, faucet&amp;sing, no utensils were provided but I didn't expect any. Bathroom was extremely nice, bath&amp;shower extremely clean and very nice, towels&amp;amenities provided* breakfast: Was a simple self-serve continental breakfast (coffee, muffins &amp; bars).. A good gesture* Second night stay: Was a bit noisie, it sounded like people were hanging out in hallway talking &amp; laughing, it sounded more like an apt. building than a hotel. That was the only blemish I would say, otherwise, I would stay here again and recommend. I give 4 stars, aside from people hanging out in hallway I would have given it an excellent grade.More</t>
   </si>
   <si>
+    <t>LeRoy J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r454366516-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -432,6 +462,9 @@
     <t>Ive been staying here for a few weeks due to work. My first impressions were great very nice big rooms. Rooms are supposed to be cleaned once a week but...  was here for 10 days before it was cleaned the first time. Now its been 13 days.... and still waiting for it to be cleaned. Also noticed when the heater kicked on it makes a horrid banging noise all night. The whole front of the heating unit was sitting on the ground so i took it to the front desk and told the staff the situation. Been two weeks and we will just say the front cover is still not on and nobody has fixed the banging noise... but i guess the ink pen i stuck in the grating will work for now. Other than that real nice place More</t>
   </si>
   <si>
+    <t>Jay F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r416296365-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -459,6 +492,9 @@
     <t>Nothing to write home about.  Bed was comfortable.  Room was large with sofa, full kitchen.   Problem was you must obtain coffee pot at front desk and any kitchen equipment (dishes, cups, etc).  There was no offensive odors.  The breakfast was not anywhere what I was expecting.  Coffee and packaged oatmeal and muffins.  I guess because they have kitchen rooms.  McDonald across street.More</t>
   </si>
   <si>
+    <t>StevenMez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r371699980-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -489,6 +525,9 @@
     <t>It is a logistical nightmare to get to if using public transport like we foolishly did. Took ages to get there - miles away from downtown Dallas, however near-ish to Arlington which is definitely worth a visit. Had to ask to change rooms a couple of times due to really bad smells in the room and no working air-con but staff tried their best to accommodate us as politely as possible.More</t>
   </si>
   <si>
+    <t>Elizabeth W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r349029000-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -516,6 +555,9 @@
     <t>Stayed here 1 month for work.   Room is REALLY big.   Has great furniture for extended stay.   Has a big closet and a dresser with a big mirror (takes the place of a full length but was great).  The room was very comfortable and my window opened.   The employees were beyond nice.   The treadmill doesn't work well,  it goes but doesn't track.  The side door is constantly propped open because the card swiper is broken.  I would stay here again,  and recommend it if a long stay is needed. More</t>
   </si>
   <si>
+    <t>Holly L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r330714504-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -534,6 +576,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>teacher h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r329705398-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -547,6 +592,9 @@
   </si>
   <si>
     <t xml:space="preserve">What now? Dog scented room? Plastic sheets? Syringes in the garden beds? Staff hate their job and location wise, why would you? Only decent things I can say, is that the room was adequately clean and of a decent size with large windows...is that 200 characters yet? </t>
+  </si>
+  <si>
+    <t>asisoyyq</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r308152264-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
@@ -1078,43 +1126,47 @@
       <c r="A2" t="n">
         <v>37187</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>136024</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1132,56 +1184,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37187</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>136025</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1193,56 +1249,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37187</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136026</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1254,56 +1314,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37187</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>136027</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1315,56 +1379,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37187</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>136028</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -1386,56 +1454,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37187</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>136029</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1447,56 +1519,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37187</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>136030</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -1518,56 +1594,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37187</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>66242</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1583,56 +1663,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="X9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37187</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>136031</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -1650,56 +1734,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37187</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>136032</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1711,56 +1799,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37187</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>11631</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -1778,56 +1870,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="X12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="Y12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37187</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>136033</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="O13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1845,56 +1941,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="X13" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="Y13" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37187</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>33648</v>
+      </c>
+      <c r="C14" t="s">
+        <v>169</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="J14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="K14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -1906,56 +2006,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="X14" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="Y14" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37187</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>23331</v>
+      </c>
+      <c r="C15" t="s">
+        <v>179</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="J15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="K15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="L15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -1973,50 +2077,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37187</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>136034</v>
+      </c>
+      <c r="C16" t="s">
+        <v>186</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="J16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="K16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="L16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="O16" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2030,50 +2138,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37187</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>22798</v>
+      </c>
+      <c r="C17" t="s">
+        <v>192</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="J17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="O17" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2089,13 +2201,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="X17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Y17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_216.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_216.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,112 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>damelis1305</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r606852558-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>55828</t>
+  </si>
+  <si>
+    <t>109229</t>
+  </si>
+  <si>
+    <t>606852558</t>
+  </si>
+  <si>
+    <t>08/15/2018</t>
+  </si>
+  <si>
+    <t>All 4 stars for Teai</t>
+  </si>
+  <si>
+    <t>I have been staying here for over a month, can't say this is the best stay I have ever had, but Teai and her colleagues definitely made my stay better. 
+I was going through some accommodations issues and I had to find another place the very next day or I'll probably end up on the streets. Fast forward after looking at 5 suites/hotels I was lucky enough to have Teai helped me with the ease of moving in and getting a good price signing up with Extended Perks. She was the sweetest person and very empathetic with my situation and even let me look at a few rooms and move in to one that I prefer. 
+The fire alarm went off twice in a span of a month, first time being a false alarm, the second time a truck actually crashed near the lobby and broke the sprinkler and triggered off the fire alarm. I am not sure what is up with the fire alarm but yes I would appreciate it if they could figure out whats wrong with all the false alarm issues.
+Soundproof is definitely not the best, depends if you are a light or heavy sleeper. They were helpful in exchanging my fridge that didn't work and also replaced another AC unit that was moldy. So far there were a few issues here and there but I appreciate their help with all of them!
+At the end...I have been staying here for over a month, can't say this is the best stay I have ever had, but Teai and her colleagues definitely made my stay better. I was going through some accommodations issues and I had to find another place the very next day or I'll probably end up on the streets. Fast forward after looking at 5 suites/hotels I was lucky enough to have Teai helped me with the ease of moving in and getting a good price signing up with Extended Perks. She was the sweetest person and very empathetic with my situation and even let me look at a few rooms and move in to one that I prefer. The fire alarm went off twice in a span of a month, first time being a false alarm, the second time a truck actually crashed near the lobby and broke the sprinkler and triggered off the fire alarm. I am not sure what is up with the fire alarm but yes I would appreciate it if they could figure out whats wrong with all the false alarm issues.Soundproof is definitely not the best, depends if you are a light or heavy sleeper. They were helpful in exchanging my fridge that didn't work and also replaced another AC unit that was moldy. So far there were a few issues here and there but I appreciate their help with all of them!At the end of the day, you get what you pay for, so I am very grateful even at paying at an average price I get the warm hospitality from the staff here.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Farmers Branch, responded to this reviewResponded 2 days ago</t>
+  </si>
+  <si>
+    <t>Responded 2 days ago</t>
+  </si>
+  <si>
+    <t>I have been staying here for over a month, can't say this is the best stay I have ever had, but Teai and her colleagues definitely made my stay better. 
+I was going through some accommodations issues and I had to find another place the very next day or I'll probably end up on the streets. Fast forward after looking at 5 suites/hotels I was lucky enough to have Teai helped me with the ease of moving in and getting a good price signing up with Extended Perks. She was the sweetest person and very empathetic with my situation and even let me look at a few rooms and move in to one that I prefer. 
+The fire alarm went off twice in a span of a month, first time being a false alarm, the second time a truck actually crashed near the lobby and broke the sprinkler and triggered off the fire alarm. I am not sure what is up with the fire alarm but yes I would appreciate it if they could figure out whats wrong with all the false alarm issues.
+Soundproof is definitely not the best, depends if you are a light or heavy sleeper. They were helpful in exchanging my fridge that didn't work and also replaced another AC unit that was moldy. So far there were a few issues here and there but I appreciate their help with all of them!
+At the end...I have been staying here for over a month, can't say this is the best stay I have ever had, but Teai and her colleagues definitely made my stay better. I was going through some accommodations issues and I had to find another place the very next day or I'll probably end up on the streets. Fast forward after looking at 5 suites/hotels I was lucky enough to have Teai helped me with the ease of moving in and getting a good price signing up with Extended Perks. She was the sweetest person and very empathetic with my situation and even let me look at a few rooms and move in to one that I prefer. The fire alarm went off twice in a span of a month, first time being a false alarm, the second time a truck actually crashed near the lobby and broke the sprinkler and triggered off the fire alarm. I am not sure what is up with the fire alarm but yes I would appreciate it if they could figure out whats wrong with all the false alarm issues.Soundproof is definitely not the best, depends if you are a light or heavy sleeper. They were helpful in exchanging my fridge that didn't work and also replaced another AC unit that was moldy. So far there were a few issues here and there but I appreciate their help with all of them!At the end of the day, you get what you pay for, so I am very grateful even at paying at an average price I get the warm hospitality from the staff here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r587921581-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>587921581</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Can't say you weren't warned</t>
+  </si>
+  <si>
+    <t>Wow guys, where to start. I will start at the beginning then on a positive note. The room that I had was very large, it was on the 3rd floor in the corner and despite that the whole room was slanting and at times I felt like it might slip off the building at any moment it was more than satisfactory. The room is the only reason I gave them a star, besides trip advisor making me of course. Issue number one was the billing. I work for a company that provides us corporate rates at Extended Stay, so the rooms are pretty cheap comparatively, but we stay for prolonged periods of time. My regrettable stay was about 60 days. 
+My first week came and went without incident. On my 2nd week however, I came back to my hotel room from work and found a piece of paper that had been slid underneath my door. It did not address any specifically as far as rates or what it was for. Just a spot for me to sign that was highlighted and written directions for me to return it. I went to the front desk and they claimed that there was a rate increase. Mind you I pay in full ahead of time on a weekly basis so that my rates should stay locked in. The front desk agreed and advised me not to worry about. The next day my credit...Wow guys, where to start. I will start at the beginning then on a positive note. The room that I had was very large, it was on the 3rd floor in the corner and despite that the whole room was slanting and at times I felt like it might slip off the building at any moment it was more than satisfactory. The room is the only reason I gave them a star, besides trip advisor making me of course. Issue number one was the billing. I work for a company that provides us corporate rates at Extended Stay, so the rooms are pretty cheap comparatively, but we stay for prolonged periods of time. My regrettable stay was about 60 days. My first week came and went without incident. On my 2nd week however, I came back to my hotel room from work and found a piece of paper that had been slid underneath my door. It did not address any specifically as far as rates or what it was for. Just a spot for me to sign that was highlighted and written directions for me to return it. I went to the front desk and they claimed that there was a rate increase. Mind you I pay in full ahead of time on a weekly basis so that my rates should stay locked in. The front desk agreed and advised me not to worry about. The next day my credit card was charged over $250 for this rate increase!! Extended Stay claimed that they could not do anything about it, even though they processed a charge not only without my signed consent but after I verbally declined  the charges. When I brought the issue up with my credit card carrier they immediately cancelled my credit card!! Now I am thousands of miles from my home and down a credit card leaving me with only my debit card. From that point on I had to make all of my payments with my debit card as my credit card was no longer valid. As far as cleanliness goes, my room stayed clean because I am clean. I bought my own cleaners as I normally do, things can get messy when you stay so long. Really happy that I did. The maid only cleaned my room 3 times while I was there!! When I brought it up to the front desk the lady spoke to me as if I was lying about it. Why would I lie about that? I paid to wash my sheets myself, 3 weeks is too long for me to sleep on the same sheets, and made the bed. It was over a month before the maid finally decided that I deserved a cleaner room and clean sheets!!Not sure what Extended Stays deal is with the fire alarm but it does go off periodically. Never at an opportune time. Usually at night when you need to sleep to get to work the next day, which leaves you out in the cold wanting to sleep but unable to. The firemen never seemed to find anything. They claimed it was more than a fire alarm being pulled, but no fire evidence was ever presented. We were told that we could return to our rooms to sleep but to keep alert!! To top it all off we were without hot water FOR A WEEK!! That is not an exageration. No hot water. Freezing cold water for baths, cooking, everything. The whole hotel, not just my room. Many of my coworkers were in the same circumstances, having to take sponge baths with water that we warmed in the microwaves. After one such bath is when the last fire alarm that I was present for rushed everyone from the hotel out into the cold outside. The front desk was cold and uncaring as they told us EVERYDAY that it would be fixed the next day. Even the district manager, Michael Howard, never once returned a phone call or email, and trust me, I was extremely diligent in reaching out to him constantly even weeks after I left that nightmare of a place.  I regret not listening to my friends who stayed at various other hotels, including some Extended Stays, and told me to join them there. I can deal with Extended Stays thin walls where you can hear people talk in normal voices on the phones. I can deal with rude, cold, unfeeling front desk ladies, except Charlene, she was amazing, I can even deal with occasional mishaps. This was a bit much to happen in my 60 days while I was there and the upper management could care less and never responded back. To be completely fair to Extended Stay on of their managers did call me after my stay gave me a partial refund for me having to deal with the water being off for a week. It was a kind gesture that accompanied many other empty promises that were never followed through on. At the end of the day I would not stay there again nor would I recommend it to anyone that I cared about. Too many other options in the area. Do not roll the dice, don't be cheap, spend a few extra dollars and avoid this headache like the plague it is. If you stayed with me this long....then you have been warned!!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Farmers Branch, responded to this reviewResponded June 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2018</t>
+  </si>
+  <si>
+    <t>Wow guys, where to start. I will start at the beginning then on a positive note. The room that I had was very large, it was on the 3rd floor in the corner and despite that the whole room was slanting and at times I felt like it might slip off the building at any moment it was more than satisfactory. The room is the only reason I gave them a star, besides trip advisor making me of course. Issue number one was the billing. I work for a company that provides us corporate rates at Extended Stay, so the rooms are pretty cheap comparatively, but we stay for prolonged periods of time. My regrettable stay was about 60 days. 
+My first week came and went without incident. On my 2nd week however, I came back to my hotel room from work and found a piece of paper that had been slid underneath my door. It did not address any specifically as far as rates or what it was for. Just a spot for me to sign that was highlighted and written directions for me to return it. I went to the front desk and they claimed that there was a rate increase. Mind you I pay in full ahead of time on a weekly basis so that my rates should stay locked in. The front desk agreed and advised me not to worry about. The next day my credit...Wow guys, where to start. I will start at the beginning then on a positive note. The room that I had was very large, it was on the 3rd floor in the corner and despite that the whole room was slanting and at times I felt like it might slip off the building at any moment it was more than satisfactory. The room is the only reason I gave them a star, besides trip advisor making me of course. Issue number one was the billing. I work for a company that provides us corporate rates at Extended Stay, so the rooms are pretty cheap comparatively, but we stay for prolonged periods of time. My regrettable stay was about 60 days. My first week came and went without incident. On my 2nd week however, I came back to my hotel room from work and found a piece of paper that had been slid underneath my door. It did not address any specifically as far as rates or what it was for. Just a spot for me to sign that was highlighted and written directions for me to return it. I went to the front desk and they claimed that there was a rate increase. Mind you I pay in full ahead of time on a weekly basis so that my rates should stay locked in. The front desk agreed and advised me not to worry about. The next day my credit card was charged over $250 for this rate increase!! Extended Stay claimed that they could not do anything about it, even though they processed a charge not only without my signed consent but after I verbally declined  the charges. When I brought the issue up with my credit card carrier they immediately cancelled my credit card!! Now I am thousands of miles from my home and down a credit card leaving me with only my debit card. From that point on I had to make all of my payments with my debit card as my credit card was no longer valid. As far as cleanliness goes, my room stayed clean because I am clean. I bought my own cleaners as I normally do, things can get messy when you stay so long. Really happy that I did. The maid only cleaned my room 3 times while I was there!! When I brought it up to the front desk the lady spoke to me as if I was lying about it. Why would I lie about that? I paid to wash my sheets myself, 3 weeks is too long for me to sleep on the same sheets, and made the bed. It was over a month before the maid finally decided that I deserved a cleaner room and clean sheets!!Not sure what Extended Stays deal is with the fire alarm but it does go off periodically. Never at an opportune time. Usually at night when you need to sleep to get to work the next day, which leaves you out in the cold wanting to sleep but unable to. The firemen never seemed to find anything. They claimed it was more than a fire alarm being pulled, but no fire evidence was ever presented. We were told that we could return to our rooms to sleep but to keep alert!! To top it all off we were without hot water FOR A WEEK!! That is not an exageration. No hot water. Freezing cold water for baths, cooking, everything. The whole hotel, not just my room. Many of my coworkers were in the same circumstances, having to take sponge baths with water that we warmed in the microwaves. After one such bath is when the last fire alarm that I was present for rushed everyone from the hotel out into the cold outside. The front desk was cold and uncaring as they told us EVERYDAY that it would be fixed the next day. Even the district manager, Michael Howard, never once returned a phone call or email, and trust me, I was extremely diligent in reaching out to him constantly even weeks after I left that nightmare of a place.  I regret not listening to my friends who stayed at various other hotels, including some Extended Stays, and told me to join them there. I can deal with Extended Stays thin walls where you can hear people talk in normal voices on the phones. I can deal with rude, cold, unfeeling front desk ladies, except Charlene, she was amazing, I can even deal with occasional mishaps. This was a bit much to happen in my 60 days while I was there and the upper management could care less and never responded back. To be completely fair to Extended Stay on of their managers did call me after my stay gave me a partial refund for me having to deal with the water being off for a week. It was a kind gesture that accompanied many other empty promises that were never followed through on. At the end of the day I would not stay there again nor would I recommend it to anyone that I cared about. Too many other options in the area. Do not roll the dice, don't be cheap, spend a few extra dollars and avoid this headache like the plague it is. If you stayed with me this long....then you have been warned!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r586824849-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>586824849</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>BEWARE</t>
+  </si>
+  <si>
+    <t>If you book through a third party beware that this hotel will sell the room out from under you. That is the case tonight as we booked for three nights through Priceline for $56 a night. When we arrived with confirmation in hand, they basically told us "sorry for your bad luck". I spoke to a reservations supervisor who said they do t have to honor Priceline bookings. So, now we are working with Priceline trying to get moved to another hotel. Priceline said that when the booking was made the hotel had availability and the hotel should have honored the booking. The hotel staff did not care that this happened to us.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Farmers Branch, responded to this reviewResponded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2018</t>
+  </si>
+  <si>
+    <t>If you book through a third party beware that this hotel will sell the room out from under you. That is the case tonight as we booked for three nights through Priceline for $56 a night. When we arrived with confirmation in hand, they basically told us "sorry for your bad luck". I spoke to a reservations supervisor who said they do t have to honor Priceline bookings. So, now we are working with Priceline trying to get moved to another hotel. Priceline said that when the booking was made the hotel had availability and the hotel should have honored the booking. The hotel staff did not care that this happened to us.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r582325515-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
-    <t>55828</t>
-  </si>
-  <si>
-    <t>109229</t>
-  </si>
-  <si>
     <t>582325515</t>
   </si>
   <si>
@@ -183,16 +274,148 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Farmers Branch, responded to this reviewResponded 4 days ago</t>
-  </si>
-  <si>
-    <t>Responded 4 days ago</t>
+    <t>00esa, Manager at Extended Stay America - Dallas - Farmers Branch, responded to this reviewResponded May 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2018</t>
   </si>
   <si>
     <t>We as clients feel very offended by the disrespectful treatment of this lady, the other people at the reception always very friendly and smiling with us. This lady sends us a letter saying that we are bothering the clients with the loud music in the rooms, but we do not have radios or horns we just have our cell phones my question is if I can not listen to music from my phone in my room which I am paying? Second, it seems very out of place threats because it is not GEC who is paying !!! We are paying with our money and it also makes me very out of place to be told that it is the last warning when we have never been told anything about noise or music ... because they do not apologize for the malfunction of the keys that we have to go a thousand times to the reception because they do not work and they always have the excuse that the cell phone or the credit card and I have my key alone nothing close, because they do not apologize because they want to treat us as if we were not clients, I think all this is defined as the following discrimination because we are Latinos.More</t>
   </si>
   <si>
-    <t>rickdcarbone</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r581817539-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>581817539</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Extended Stay Review</t>
+  </si>
+  <si>
+    <t>This is an amazing place to stay! Clean, well appointed rooms and super friendly staff. I travel a lot and for months at a time. So it is so nice to find a place that feels like my home away from home. And I found it!The staff there including Teai, Colleen and Antwanette were helpful and cheeeful. The manager Christiana is a consummate professional. Michael FoxMooresville , IndianaMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Farmers Branch, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>This is an amazing place to stay! Clean, well appointed rooms and super friendly staff. I travel a lot and for months at a time. So it is so nice to find a place that feels like my home away from home. And I found it!The staff there including Teai, Colleen and Antwanette were helpful and cheeeful. The manager Christiana is a consummate professional. Michael FoxMooresville , IndianaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r519681011-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>519681011</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t>RRCC</t>
+  </si>
+  <si>
+    <t>Never had better service and passionate employees that work to keep you happy and comfortable Tina and Teai are excellent. They make u feel like you're at home each day. They have a great size and very nice laundry facilities and the WiFi is very good for all task that need to done do school ,business or whatever the situation is . Thank you for the great memories and amazing customer service that is 2nd to non.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Farmers Branch, responded to this reviewResponded August 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2017</t>
+  </si>
+  <si>
+    <t>Never had better service and passionate employees that work to keep you happy and comfortable Tina and Teai are excellent. They make u feel like you're at home each day. They have a great size and very nice laundry facilities and the WiFi is very good for all task that need to done do school ,business or whatever the situation is . Thank you for the great memories and amazing customer service that is 2nd to non.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r505341194-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>505341194</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Work needed</t>
+  </si>
+  <si>
+    <t>First and last time at any Extended Stay hotel. The day I checked it was over 100 degrees outside. Upon check in I wasn't advised of internet code, dishes available for guest use, and I had to ask about breakfast hours. I used the luggage cart to bring in luggage and no one offered assistance. Finally, made it upstairs and my room cards didn't work. Someone was going to bring door cards up to the room however, I was sweating in the hallway with no air conditioner waiting so I made my back downstairs with luggage cart and met the person with door card. He did offer to assist with luggage cart....at this point I declined. Entered the room to 71 degrees on fan/AC and a musty odor. I adjusted the temps hoping this would eliminate the odor. I pulled my covers back to sit in bed and found many hairs in my bed. I called for new sheets and changed bed linens was never offered for anyone to come look at dirty sheets or change to fresh sheets.  Floors and walls are paper thin being that I could hear people walking and talking all night until about 1:30am. Bathroom tub faucet leaked constantly, room temps never cooled the whole room, silverware didn't looked clean. I went to store and purchased paper plates, dish detergent, plastic ware, glasses, candles, and air freshener. The only positive were a few premium TV...First and last time at any Extended Stay hotel. The day I checked it was over 100 degrees outside. Upon check in I wasn't advised of internet code, dishes available for guest use, and I had to ask about breakfast hours. I used the luggage cart to bring in luggage and no one offered assistance. Finally, made it upstairs and my room cards didn't work. Someone was going to bring door cards up to the room however, I was sweating in the hallway with no air conditioner waiting so I made my back downstairs with luggage cart and met the person with door card. He did offer to assist with luggage cart....at this point I declined. Entered the room to 71 degrees on fan/AC and a musty odor. I adjusted the temps hoping this would eliminate the odor. I pulled my covers back to sit in bed and found many hairs in my bed. I called for new sheets and changed bed linens was never offered for anyone to come look at dirty sheets or change to fresh sheets.  Floors and walls are paper thin being that I could hear people walking and talking all night until about 1:30am. Bathroom tub faucet leaked constantly, room temps never cooled the whole room, silverware didn't looked clean. I went to store and purchased paper plates, dish detergent, plastic ware, glasses, candles, and air freshener. The only positive were a few premium TV channels, refrigerator, and short stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Farmers Branch, responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>First and last time at any Extended Stay hotel. The day I checked it was over 100 degrees outside. Upon check in I wasn't advised of internet code, dishes available for guest use, and I had to ask about breakfast hours. I used the luggage cart to bring in luggage and no one offered assistance. Finally, made it upstairs and my room cards didn't work. Someone was going to bring door cards up to the room however, I was sweating in the hallway with no air conditioner waiting so I made my back downstairs with luggage cart and met the person with door card. He did offer to assist with luggage cart....at this point I declined. Entered the room to 71 degrees on fan/AC and a musty odor. I adjusted the temps hoping this would eliminate the odor. I pulled my covers back to sit in bed and found many hairs in my bed. I called for new sheets and changed bed linens was never offered for anyone to come look at dirty sheets or change to fresh sheets.  Floors and walls are paper thin being that I could hear people walking and talking all night until about 1:30am. Bathroom tub faucet leaked constantly, room temps never cooled the whole room, silverware didn't looked clean. I went to store and purchased paper plates, dish detergent, plastic ware, glasses, candles, and air freshener. The only positive were a few premium TV...First and last time at any Extended Stay hotel. The day I checked it was over 100 degrees outside. Upon check in I wasn't advised of internet code, dishes available for guest use, and I had to ask about breakfast hours. I used the luggage cart to bring in luggage and no one offered assistance. Finally, made it upstairs and my room cards didn't work. Someone was going to bring door cards up to the room however, I was sweating in the hallway with no air conditioner waiting so I made my back downstairs with luggage cart and met the person with door card. He did offer to assist with luggage cart....at this point I declined. Entered the room to 71 degrees on fan/AC and a musty odor. I adjusted the temps hoping this would eliminate the odor. I pulled my covers back to sit in bed and found many hairs in my bed. I called for new sheets and changed bed linens was never offered for anyone to come look at dirty sheets or change to fresh sheets.  Floors and walls are paper thin being that I could hear people walking and talking all night until about 1:30am. Bathroom tub faucet leaked constantly, room temps never cooled the whole room, silverware didn't looked clean. I went to store and purchased paper plates, dish detergent, plastic ware, glasses, candles, and air freshener. The only positive were a few premium TV channels, refrigerator, and short stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r501912101-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>501912101</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonderful </t>
+  </si>
+  <si>
+    <t>The hotel and staff were excellent. Quinlan and Bevin were amazing. Our overall our experience was tremendous. Everything was clean and readily available. The room had accommodations for us and the staff complimented all of the wonderful experiences that we had on our trip.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Farmers Branch, responded to this reviewResponded July 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2017</t>
+  </si>
+  <si>
+    <t>The hotel and staff were excellent. Quinlan and Bevin were amazing. Our overall our experience was tremendous. Everything was clean and readily available. The room had accommodations for us and the staff complimented all of the wonderful experiences that we had on our trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r497828413-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
+  </si>
+  <si>
+    <t>497828413</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>Good Choice</t>
+  </si>
+  <si>
+    <t>The staff was courteous, professional. If you will need maid service, let it be known and the motel will accommodate you. The premises were maintained and orderly. I would recommend it. Quiet environment.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Dallas - Farmers Branch, responded to this reviewResponded July 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2017</t>
+  </si>
+  <si>
+    <t>The staff was courteous, professional. If you will need maid service, let it be known and the motel will accommodate you. The premises were maintained and orderly. I would recommend it. Quiet environment.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r496945965-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
@@ -210,12 +433,6 @@
     <t>This is hands down the best place to stay for the friendly price. Full kitchen, great location and the staff is friendly and caring. I will make this my #1 hotel destination. It's like getting and efficiency apartment. They even have sofa beds just in case you have a need for the secondary sleeping area.MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Dallas - Farmers Branch, responded to this reviewResponded June 29, 2017</t>
   </si>
   <si>
@@ -225,156 +442,6 @@
     <t>This is hands down the best place to stay for the friendly price. Full kitchen, great location and the staff is friendly and caring. I will make this my #1 hotel destination. It's like getting and efficiency apartment. They even have sofa beds just in case you have a need for the secondary sleeping area.More</t>
   </si>
   <si>
-    <t>michaelfox171</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r581817539-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
-  </si>
-  <si>
-    <t>581817539</t>
-  </si>
-  <si>
-    <t>05/21/2018</t>
-  </si>
-  <si>
-    <t>Extended Stay Review</t>
-  </si>
-  <si>
-    <t>This is an amazing place to stay! Clean, well appointed rooms and super friendly staff. I travel a lot and for months at a time. So it is so nice to find a place that feels like my home away from home. And I found it!The staff there including Teai, Colleen and Antwanette were helpful and cheeeful. The manager Christiana is a consummate professional. Michael FoxMooresville , IndianaMoreShow less</t>
-  </si>
-  <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Dallas - Farmers Branch, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
-  </si>
-  <si>
-    <t>This is an amazing place to stay! Clean, well appointed rooms and super friendly staff. I travel a lot and for months at a time. So it is so nice to find a place that feels like my home away from home. And I found it!The staff there including Teai, Colleen and Antwanette were helpful and cheeeful. The manager Christiana is a consummate professional. Michael FoxMooresville , IndianaMore</t>
-  </si>
-  <si>
-    <t>anthony n</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r519681011-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
-  </si>
-  <si>
-    <t>519681011</t>
-  </si>
-  <si>
-    <t>08/30/2017</t>
-  </si>
-  <si>
-    <t>RRCC</t>
-  </si>
-  <si>
-    <t>Never had better service and passionate employees that work to keep you happy and comfortable Tina and Teai are excellent. They make u feel like you're at home each day. They have a great size and very nice laundry facilities and the WiFi is very good for all task that need to done do school ,business or whatever the situation is . Thank you for the great memories and amazing customer service that is 2nd to non.MoreShow less</t>
-  </si>
-  <si>
-    <t>August 2017</t>
-  </si>
-  <si>
-    <t>00esa, General Manager at Extended Stay America - Dallas - Farmers Branch, responded to this reviewResponded August 31, 2017</t>
-  </si>
-  <si>
-    <t>Responded August 31, 2017</t>
-  </si>
-  <si>
-    <t>Never had better service and passionate employees that work to keep you happy and comfortable Tina and Teai are excellent. They make u feel like you're at home each day. They have a great size and very nice laundry facilities and the WiFi is very good for all task that need to done do school ,business or whatever the situation is . Thank you for the great memories and amazing customer service that is 2nd to non.More</t>
-  </si>
-  <si>
-    <t>ACBest</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r505341194-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
-  </si>
-  <si>
-    <t>505341194</t>
-  </si>
-  <si>
-    <t>07/24/2017</t>
-  </si>
-  <si>
-    <t>Work needed</t>
-  </si>
-  <si>
-    <t>First and last time at any Extended Stay hotel. The day I checked it was over 100 degrees outside. Upon check in I wasn't advised of internet code, dishes available for guest use, and I had to ask about breakfast hours. I used the luggage cart to bring in luggage and no one offered assistance. Finally, made it upstairs and my room cards didn't work. Someone was going to bring door cards up to the room however, I was sweating in the hallway with no air conditioner waiting so I made my back downstairs with luggage cart and met the person with door card. He did offer to assist with luggage cart....at this point I declined. Entered the room to 71 degrees on fan/AC and a musty odor. I adjusted the temps hoping this would eliminate the odor. I pulled my covers back to sit in bed and found many hairs in my bed. I called for new sheets and changed bed linens was never offered for anyone to come look at dirty sheets or change to fresh sheets.  Floors and walls are paper thin being that I could hear people walking and talking all night until about 1:30am. Bathroom tub faucet leaked constantly, room temps never cooled the whole room, silverware didn't looked clean. I went to store and purchased paper plates, dish detergent, plastic ware, glasses, candles, and air freshener. The only positive were a few premium TV...First and last time at any Extended Stay hotel. The day I checked it was over 100 degrees outside. Upon check in I wasn't advised of internet code, dishes available for guest use, and I had to ask about breakfast hours. I used the luggage cart to bring in luggage and no one offered assistance. Finally, made it upstairs and my room cards didn't work. Someone was going to bring door cards up to the room however, I was sweating in the hallway with no air conditioner waiting so I made my back downstairs with luggage cart and met the person with door card. He did offer to assist with luggage cart....at this point I declined. Entered the room to 71 degrees on fan/AC and a musty odor. I adjusted the temps hoping this would eliminate the odor. I pulled my covers back to sit in bed and found many hairs in my bed. I called for new sheets and changed bed linens was never offered for anyone to come look at dirty sheets or change to fresh sheets.  Floors and walls are paper thin being that I could hear people walking and talking all night until about 1:30am. Bathroom tub faucet leaked constantly, room temps never cooled the whole room, silverware didn't looked clean. I went to store and purchased paper plates, dish detergent, plastic ware, glasses, candles, and air freshener. The only positive were a few premium TV channels, refrigerator, and short stay.MoreShow less</t>
-  </si>
-  <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t>00esa, General Manager at Extended Stay America - Dallas - Farmers Branch, responded to this reviewResponded July 25, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 25, 2017</t>
-  </si>
-  <si>
-    <t>First and last time at any Extended Stay hotel. The day I checked it was over 100 degrees outside. Upon check in I wasn't advised of internet code, dishes available for guest use, and I had to ask about breakfast hours. I used the luggage cart to bring in luggage and no one offered assistance. Finally, made it upstairs and my room cards didn't work. Someone was going to bring door cards up to the room however, I was sweating in the hallway with no air conditioner waiting so I made my back downstairs with luggage cart and met the person with door card. He did offer to assist with luggage cart....at this point I declined. Entered the room to 71 degrees on fan/AC and a musty odor. I adjusted the temps hoping this would eliminate the odor. I pulled my covers back to sit in bed and found many hairs in my bed. I called for new sheets and changed bed linens was never offered for anyone to come look at dirty sheets or change to fresh sheets.  Floors and walls are paper thin being that I could hear people walking and talking all night until about 1:30am. Bathroom tub faucet leaked constantly, room temps never cooled the whole room, silverware didn't looked clean. I went to store and purchased paper plates, dish detergent, plastic ware, glasses, candles, and air freshener. The only positive were a few premium TV...First and last time at any Extended Stay hotel. The day I checked it was over 100 degrees outside. Upon check in I wasn't advised of internet code, dishes available for guest use, and I had to ask about breakfast hours. I used the luggage cart to bring in luggage and no one offered assistance. Finally, made it upstairs and my room cards didn't work. Someone was going to bring door cards up to the room however, I was sweating in the hallway with no air conditioner waiting so I made my back downstairs with luggage cart and met the person with door card. He did offer to assist with luggage cart....at this point I declined. Entered the room to 71 degrees on fan/AC and a musty odor. I adjusted the temps hoping this would eliminate the odor. I pulled my covers back to sit in bed and found many hairs in my bed. I called for new sheets and changed bed linens was never offered for anyone to come look at dirty sheets or change to fresh sheets.  Floors and walls are paper thin being that I could hear people walking and talking all night until about 1:30am. Bathroom tub faucet leaked constantly, room temps never cooled the whole room, silverware didn't looked clean. I went to store and purchased paper plates, dish detergent, plastic ware, glasses, candles, and air freshener. The only positive were a few premium TV channels, refrigerator, and short stay.More</t>
-  </si>
-  <si>
-    <t>ladyinblack31</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r501912101-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
-  </si>
-  <si>
-    <t>501912101</t>
-  </si>
-  <si>
-    <t>07/14/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wonderful </t>
-  </si>
-  <si>
-    <t>The hotel and staff were excellent. Quinlan and Bevin were amazing. Our overall our experience was tremendous. Everything was clean and readily available. The room had accommodations for us and the staff complimented all of the wonderful experiences that we had on our trip.MoreShow less</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>00esa, General Manager at Extended Stay America - Dallas - Farmers Branch, responded to this reviewResponded July 15, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 15, 2017</t>
-  </si>
-  <si>
-    <t>The hotel and staff were excellent. Quinlan and Bevin were amazing. Our overall our experience was tremendous. Everything was clean and readily available. The room had accommodations for us and the staff complimented all of the wonderful experiences that we had on our trip.More</t>
-  </si>
-  <si>
-    <t>Z429KXhelenb</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r497828413-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
-  </si>
-  <si>
-    <t>497828413</t>
-  </si>
-  <si>
-    <t>07/01/2017</t>
-  </si>
-  <si>
-    <t>Good Choice</t>
-  </si>
-  <si>
-    <t>The staff was courteous, professional. If you will need maid service, let it be known and the motel will accommodate you. The premises were maintained and orderly. I would recommend it. Quiet environment.MoreShow less</t>
-  </si>
-  <si>
-    <t>00esa, General Manager at Extended Stay America - Dallas - Farmers Branch, responded to this reviewResponded July 2, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 2, 2017</t>
-  </si>
-  <si>
-    <t>The staff was courteous, professional. If you will need maid service, let it be known and the motel will accommodate you. The premises were maintained and orderly. I would recommend it. Quiet environment.More</t>
-  </si>
-  <si>
-    <t>Skysoldier4life</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r480481894-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -402,9 +469,6 @@
     <t>On the road for work each week, alot of the hotels tend to blend together. This one is an averageish property, the service was above average at check in. Room was large and spacious- larger than many extended stays I've been in before. 0 Complaints about room, service, or price- and location was better than expected to nearby restaurants and bars.More</t>
   </si>
   <si>
-    <t>Jorge B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r467091385-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -432,9 +496,6 @@
     <t>*Location: Excellent location, very close to highway and shops, restaurants within walking distance*Checkin was fast &amp; attendant Ernest, was courteous, he gave me directions to my room, gave pertinent info and advised of breakfast times.*room: I got the queen bed size suite...room was very nice, clean, welcoming... It was spacious, furniture was appropriate (chest drawers, desk &amp; 2 chairs, tv &amp; stand, couch, chair &amp; center table, night stand, kitchen area was immaculate, it included a fridge, stove, microwave, faucet&amp;sing, no utensils were provided but I didn't expect any. Bathroom was extremely nice, bath&amp;shower extremely clean and very nice, towels&amp;amenities provided* breakfast: Was a simple self-serve continental breakfast (coffee, muffins &amp; bars).. A good gesture* Second night stay: Was a bit noisie, it sounded like people were hanging out in hallway talking &amp; laughing, it sounded more like an apt. building than a hotel. That was the only blemish I would say, otherwise, I would stay here again and recommend. I give 4 stars, aside from people hanging out in hallway I would have given it an excellent grade.More</t>
   </si>
   <si>
-    <t>LeRoy J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r454366516-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -462,9 +523,6 @@
     <t>Ive been staying here for a few weeks due to work. My first impressions were great very nice big rooms. Rooms are supposed to be cleaned once a week but...  was here for 10 days before it was cleaned the first time. Now its been 13 days.... and still waiting for it to be cleaned. Also noticed when the heater kicked on it makes a horrid banging noise all night. The whole front of the heating unit was sitting on the ground so i took it to the front desk and told the staff the situation. Been two weeks and we will just say the front cover is still not on and nobody has fixed the banging noise... but i guess the ink pen i stuck in the grating will work for now. Other than that real nice place More</t>
   </si>
   <si>
-    <t>Jay F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r416296365-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -492,9 +550,6 @@
     <t>Nothing to write home about.  Bed was comfortable.  Room was large with sofa, full kitchen.   Problem was you must obtain coffee pot at front desk and any kitchen equipment (dishes, cups, etc).  There was no offensive odors.  The breakfast was not anywhere what I was expecting.  Coffee and packaged oatmeal and muffins.  I guess because they have kitchen rooms.  McDonald across street.More</t>
   </si>
   <si>
-    <t>StevenMez</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r371699980-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -525,9 +580,6 @@
     <t>It is a logistical nightmare to get to if using public transport like we foolishly did. Took ages to get there - miles away from downtown Dallas, however near-ish to Arlington which is definitely worth a visit. Had to ask to change rooms a couple of times due to really bad smells in the room and no working air-con but staff tried their best to accommodate us as politely as possible.More</t>
   </si>
   <si>
-    <t>Elizabeth W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r349029000-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -555,9 +607,6 @@
     <t>Stayed here 1 month for work.   Room is REALLY big.   Has great furniture for extended stay.   Has a big closet and a dresser with a big mirror (takes the place of a full length but was great).  The room was very comfortable and my window opened.   The employees were beyond nice.   The treadmill doesn't work well,  it goes but doesn't track.  The side door is constantly propped open because the card swiper is broken.  I would stay here again,  and recommend it if a long stay is needed. More</t>
   </si>
   <si>
-    <t>Holly L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r330714504-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -576,9 +625,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>teacher h</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r329705398-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
   </si>
   <si>
@@ -592,9 +638,6 @@
   </si>
   <si>
     <t xml:space="preserve">What now? Dog scented room? Plastic sheets? Syringes in the garden beds? Staff hate their job and location wise, why would you? Only decent things I can say, is that the room was adequately clean and of a decent size with large windows...is that 200 characters yet? </t>
-  </si>
-  <si>
-    <t>asisoyyq</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55828-d109229-r308152264-Extended_Stay_America_Dallas_Farmers_Branch-Farmers_Branch_Texas.html</t>
@@ -1126,183 +1169,177 @@
       <c r="A2" t="n">
         <v>37187</v>
       </c>
-      <c r="B2" t="n">
-        <v>136024</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>1</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37187</v>
       </c>
-      <c r="B3" t="n">
-        <v>136025</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
         <v>66</v>
-      </c>
-      <c r="X3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37187</v>
       </c>
-      <c r="B4" t="n">
-        <v>136026</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1314,200 +1351,184 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37187</v>
       </c>
-      <c r="B5" t="n">
-        <v>136027</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>80</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>81</v>
-      </c>
-      <c r="J5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>85</v>
-      </c>
-      <c r="O5" t="s">
-        <v>65</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37187</v>
       </c>
-      <c r="B6" t="n">
-        <v>136028</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>90</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" t="s">
-        <v>93</v>
-      </c>
-      <c r="L6" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="s">
-        <v>95</v>
-      </c>
       <c r="O6" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>3</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37187</v>
       </c>
-      <c r="B7" t="n">
-        <v>136029</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1519,275 +1540,259 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="X7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="Y7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37187</v>
       </c>
-      <c r="B8" t="n">
-        <v>136030</v>
-      </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
         <v>4</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37187</v>
       </c>
-      <c r="B9" t="n">
-        <v>66242</v>
-      </c>
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="X9" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="Y9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37187</v>
       </c>
-      <c r="B10" t="n">
-        <v>136031</v>
-      </c>
-      <c r="C10" t="s">
-        <v>128</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="O10" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="X10" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="Y10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37187</v>
       </c>
-      <c r="B11" t="n">
-        <v>136032</v>
-      </c>
-      <c r="C11" t="s">
-        <v>138</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1799,64 +1804,58 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="X11" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="Y11" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37187</v>
       </c>
-      <c r="B12" t="n">
-        <v>11631</v>
-      </c>
-      <c r="C12" t="s">
-        <v>148</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="O12" t="s">
-        <v>65</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="n">
@@ -1864,137 +1863,129 @@
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="X12" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="Y12" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37187</v>
       </c>
-      <c r="B13" t="n">
-        <v>136033</v>
-      </c>
-      <c r="C13" t="s">
-        <v>158</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="J13" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="K13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="O13" t="s">
-        <v>165</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>2</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="X13" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="Y13" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37187</v>
       </c>
-      <c r="B14" t="n">
-        <v>33648</v>
-      </c>
-      <c r="C14" t="s">
-        <v>169</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="J14" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="K14" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="O14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2006,62 +1997,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="X14" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="Y14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37187</v>
       </c>
-      <c r="B15" t="n">
-        <v>23331</v>
-      </c>
-      <c r="C15" t="s">
-        <v>179</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="J15" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="K15" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="O15" t="s">
-        <v>105</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="n">
@@ -2069,145 +2058,330 @@
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>171</v>
+      </c>
+      <c r="X15" t="s">
+        <v>172</v>
+      </c>
       <c r="Y15" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37187</v>
       </c>
-      <c r="B16" t="n">
-        <v>136034</v>
-      </c>
-      <c r="C16" t="s">
-        <v>186</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="J16" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="K16" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>181</v>
+      </c>
+      <c r="X16" t="s">
+        <v>182</v>
+      </c>
       <c r="Y16" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37187</v>
       </c>
-      <c r="B17" t="n">
-        <v>22798</v>
-      </c>
-      <c r="C17" t="s">
-        <v>192</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="J17" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="K17" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="O17" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>4</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
+        <v>190</v>
+      </c>
+      <c r="X17" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37187</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>194</v>
+      </c>
+      <c r="J18" t="s">
+        <v>195</v>
+      </c>
+      <c r="K18" t="s">
+        <v>196</v>
+      </c>
+      <c r="L18" t="s">
+        <v>197</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>198</v>
+      </c>
+      <c r="O18" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37187</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
         <v>199</v>
       </c>
-      <c r="X17" t="s">
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
         <v>200</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="J19" t="s">
         <v>201</v>
+      </c>
+      <c r="K19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L19" t="s">
+        <v>203</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>198</v>
+      </c>
+      <c r="O19" t="s">
+        <v>180</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37187</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>209</v>
+      </c>
+      <c r="O20" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>210</v>
+      </c>
+      <c r="X20" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
